--- a/biology/Botanique/Square_du_Petit-Bois/Square_du_Petit-Bois.xlsx
+++ b/biology/Botanique/Square_du_Petit-Bois/Square_du_Petit-Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Petit-Bois est un espace vert du 19e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 73, allée Darius-Milhaud.
 Il est desservi par la ligne 5 à la station Porte de Pantin et par la ligne 3b du tramway d'Île-de-France à la station Porte de Pantin-Parc de la Villette
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,9 +586,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit square de forme triangulaire et d'une superficie de 2 000 m2 a été créé sur l'ancienne ZAC Manin-Jaurès à l'emplacement de la ligne de Petite Ceinture. Les immeubles très hauts qui le bordent et son sol en gypse ont obligé les paysagistes à utiliser des plantes et arbres d'ombre, adaptés à une faible épaisseur de sol[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit square de forme triangulaire et d'une superficie de 2 000 m2 a été créé sur l'ancienne ZAC Manin-Jaurès à l'emplacement de la ligne de Petite Ceinture. Les immeubles très hauts qui le bordent et son sol en gypse ont obligé les paysagistes à utiliser des plantes et arbres d'ombre, adaptés à une faible épaisseur de sol.
 </t>
         </is>
       </c>
